--- a/ProjectExecution/Sprint002-2020071320200724/SprintBurndown002.xlsx
+++ b/ProjectExecution/Sprint002-2020071320200724/SprintBurndown002.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Anodiam</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Sprint Number 002</t>
+  </si>
+  <si>
+    <t>QA Home Page</t>
   </si>
 </sst>
 </file>
@@ -449,37 +452,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,34 +555,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.6</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.200000000000003</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.799999999999997</c:v>
+                  <c:v>31.499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.4</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.200000000000003</c:v>
+                  <c:v>13.500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7999999999999972</c:v>
+                  <c:v>8.9999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3999999999999986</c:v>
+                  <c:v>4.4999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -598,11 +601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="315968032"/>
-        <c:axId val="315964768"/>
+        <c:axId val="410411536"/>
+        <c:axId val="410419152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315968032"/>
+        <c:axId val="410411536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315964768"/>
+        <c:crossAx val="410419152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -656,7 +659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315964768"/>
+        <c:axId val="410419152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315968032"/>
+        <c:crossAx val="410411536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -1182,11 +1185,11 @@
       <c r="I2" s="12"/>
       <c r="J2" s="11">
         <f>SUM(D2:D21)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" s="12">
         <f>J2*(1-H2/10)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1212,11 +1215,11 @@
       <c r="I3" s="10"/>
       <c r="J3" s="12">
         <f>J2-I3</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="12">
         <f>J2*(1-H3/10)</f>
-        <v>39.6</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1242,11 +1245,11 @@
       <c r="I4" s="10"/>
       <c r="J4" s="12">
         <f t="shared" ref="J4:J12" si="0">J3-I4</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="12">
         <f>J2*(1-H4/10)</f>
-        <v>35.200000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1272,11 +1275,11 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" s="12">
         <f>J2*(1-H5/10)</f>
-        <v>30.799999999999997</v>
+        <v>31.499999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1302,11 +1305,11 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" s="12">
         <f>J2*(1-H6/10)</f>
-        <v>26.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -1332,25 +1335,25 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" s="12">
         <f>J2*(1-H7/10)</f>
-        <v>22</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="8">
-        <v>2001</v>
+        <v>1007</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>20</v>
@@ -1362,11 +1365,11 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="12">
         <f>J2*(1-H8/10)</f>
-        <v>17.600000000000001</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1374,13 +1377,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="8">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>20</v>
@@ -1392,11 +1395,11 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="12">
         <f>J2*(1-H9/10)</f>
-        <v>13.200000000000003</v>
+        <v>13.500000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1404,13 +1407,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="8">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>20</v>
@@ -1422,11 +1425,11 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="12">
         <f>J2*(1-H10/10)</f>
-        <v>8.7999999999999972</v>
+        <v>8.9999999999999982</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1434,10 +1437,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8">
         <v>3</v>
@@ -1452,11 +1455,11 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" s="12">
         <f>J2*(1-H11/10)</f>
-        <v>4.3999999999999986</v>
+        <v>4.4999999999999991</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1464,10 +1467,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="8">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8">
         <v>3</v>
@@ -1482,7 +1485,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" s="12">
         <f>J2*(1-H12/10)</f>
@@ -1494,10 +1497,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="8">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8">
         <v>3</v>
@@ -1519,24 +1522,32 @@
         <v>2</v>
       </c>
       <c r="B14" s="8">
+        <v>2006</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
         <v>2007</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
         <v>20</v>
       </c>
@@ -1625,10 +1636,10 @@
     <dataValidation type="list" allowBlank="1" sqref="F2:F21">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select estimation story points in fibonacci numbers 1, 2, 3, 5, 8 or 13" sqref="D15:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select estimation story points in fibonacci numbers 1, 2, 3, 5, 8 or 13" sqref="D16:D21">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Estimates for Task!!!" error="Please select a Fibonacci value from the dropdown!" sqref="D2:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Estimates for Task!!!" error="Please select a Fibonacci value from the dropdown!" sqref="D2:D15">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
   </dataValidations>
